--- a/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
+++ b/xlsx/laboratory/fact/ШП СОЖ ШСП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18615" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ШП" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="215">
   <si>
     <t>№ п/п</t>
   </si>
@@ -895,6 +895,12 @@
   <si>
     <t>15/55</t>
   </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
@@ -1296,7 +1302,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1640,6 +1646,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2009,8 +2025,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:N192"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P200" sqref="P200"/>
+    <sheetView topLeftCell="A181" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2028,63 +2044,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
     </row>
     <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="127"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="131"/>
     </row>
     <row r="3" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="129"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8088,8 +8104,8 @@
   </sheetPr>
   <dimension ref="A1:N246"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A228" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8105,42 +8121,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
     </row>
     <row r="2" spans="1:14" ht="125.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="139"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="135"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="19" t="s">
         <v>4</v>
       </c>
@@ -16048,10 +16064,10 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R822"/>
+  <dimension ref="A1:R882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N503" sqref="N503"/>
+    <sheetView tabSelected="1" topLeftCell="A842" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N868" sqref="N868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16065,20 +16081,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
       <c r="M1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37527,6 +37543,1598 @@
       <c r="L822" s="42"/>
       <c r="M822" s="72"/>
     </row>
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A823" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B823" s="116">
+        <v>1</v>
+      </c>
+      <c r="C823" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D823" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E823" s="94">
+        <v>8.6</v>
+      </c>
+      <c r="F823" s="94">
+        <v>3.1</v>
+      </c>
+      <c r="G823" s="75"/>
+      <c r="H823" s="76"/>
+      <c r="I823" s="75"/>
+      <c r="J823" s="99">
+        <v>70</v>
+      </c>
+      <c r="K823" s="96">
+        <v>5</v>
+      </c>
+      <c r="L823" s="75"/>
+      <c r="M823" s="77"/>
+    </row>
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A824" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B824" s="117">
+        <v>1</v>
+      </c>
+      <c r="C824" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D824" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E824" s="101">
+        <v>8.5</v>
+      </c>
+      <c r="F824" s="87">
+        <v>3</v>
+      </c>
+      <c r="G824" s="33"/>
+      <c r="H824" s="34"/>
+      <c r="I824" s="33"/>
+      <c r="J824" s="92">
+        <v>50</v>
+      </c>
+      <c r="K824" s="88">
+        <v>3</v>
+      </c>
+      <c r="L824" s="33"/>
+      <c r="M824" s="69"/>
+    </row>
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A825" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B825" s="117">
+        <v>1</v>
+      </c>
+      <c r="C825" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D825" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E825" s="88">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F825" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="G825" s="33"/>
+      <c r="H825" s="34"/>
+      <c r="I825" s="33"/>
+      <c r="J825" s="92">
+        <v>70</v>
+      </c>
+      <c r="K825" s="87">
+        <v>1</v>
+      </c>
+      <c r="L825" s="33"/>
+      <c r="M825" s="69"/>
+    </row>
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A826" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B826" s="117">
+        <v>1</v>
+      </c>
+      <c r="C826" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D826" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E826" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F826" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G826" s="33"/>
+      <c r="H826" s="34"/>
+      <c r="I826" s="33"/>
+      <c r="J826" s="87">
+        <v>40</v>
+      </c>
+      <c r="K826" s="88">
+        <v>5</v>
+      </c>
+      <c r="L826" s="33"/>
+      <c r="M826" s="69"/>
+    </row>
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A827" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B827" s="117">
+        <v>1</v>
+      </c>
+      <c r="C827" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D827" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E827" s="88">
+        <v>8.4</v>
+      </c>
+      <c r="F827" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G827" s="33"/>
+      <c r="H827" s="34"/>
+      <c r="I827" s="33"/>
+      <c r="J827" s="87">
+        <v>50</v>
+      </c>
+      <c r="K827" s="88">
+        <v>5</v>
+      </c>
+      <c r="L827" s="33"/>
+      <c r="M827" s="69"/>
+    </row>
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A828" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B828" s="117">
+        <v>2</v>
+      </c>
+      <c r="C828" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D828" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E828" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F828" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="G828" s="33"/>
+      <c r="H828" s="34"/>
+      <c r="I828" s="33"/>
+      <c r="J828" s="87">
+        <v>50</v>
+      </c>
+      <c r="K828" s="88">
+        <v>5</v>
+      </c>
+      <c r="L828" s="33"/>
+      <c r="M828" s="69"/>
+    </row>
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A829" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B829" s="117">
+        <v>2</v>
+      </c>
+      <c r="C829" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D829" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E829" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F829" s="88">
+        <v>2.7</v>
+      </c>
+      <c r="G829" s="33"/>
+      <c r="H829" s="34"/>
+      <c r="I829" s="33"/>
+      <c r="J829" s="87">
+        <v>40</v>
+      </c>
+      <c r="K829" s="87">
+        <v>0</v>
+      </c>
+      <c r="L829" s="33"/>
+      <c r="M829" s="69"/>
+    </row>
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A830" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B830" s="117">
+        <v>2</v>
+      </c>
+      <c r="C830" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D830" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E830" s="87">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F830" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G830" s="33"/>
+      <c r="H830" s="34"/>
+      <c r="I830" s="33"/>
+      <c r="J830" s="87">
+        <v>40</v>
+      </c>
+      <c r="K830" s="87">
+        <v>1</v>
+      </c>
+      <c r="L830" s="33"/>
+      <c r="M830" s="69"/>
+    </row>
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A831" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B831" s="117">
+        <v>3</v>
+      </c>
+      <c r="C831" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D831" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E831" s="87">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F831" s="87">
+        <v>3.5</v>
+      </c>
+      <c r="G831" s="33"/>
+      <c r="H831" s="34"/>
+      <c r="I831" s="33"/>
+      <c r="J831" s="87">
+        <v>40</v>
+      </c>
+      <c r="K831" s="87">
+        <v>1</v>
+      </c>
+      <c r="L831" s="33"/>
+      <c r="M831" s="69"/>
+    </row>
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A832" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B832" s="117">
+        <v>3</v>
+      </c>
+      <c r="C832" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D832" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E832" s="87">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F832" s="123">
+        <v>2.4</v>
+      </c>
+      <c r="G832" s="33"/>
+      <c r="H832" s="34"/>
+      <c r="I832" s="33"/>
+      <c r="J832" s="87">
+        <v>40</v>
+      </c>
+      <c r="K832" s="88">
+        <v>3</v>
+      </c>
+      <c r="L832" s="33"/>
+      <c r="M832" s="69"/>
+    </row>
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A833" s="122">
+        <v>44020</v>
+      </c>
+      <c r="B833" s="117">
+        <v>3</v>
+      </c>
+      <c r="C833" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D833" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E833" s="87">
+        <v>9</v>
+      </c>
+      <c r="F833" s="123">
+        <v>2.7</v>
+      </c>
+      <c r="G833" s="33"/>
+      <c r="H833" s="34"/>
+      <c r="I833" s="33"/>
+      <c r="J833" s="87">
+        <v>50</v>
+      </c>
+      <c r="K833" s="88">
+        <v>3</v>
+      </c>
+      <c r="L833" s="33"/>
+      <c r="M833" s="69"/>
+    </row>
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A834" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B834" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C834" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D834" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E834" s="33"/>
+      <c r="F834" s="34"/>
+      <c r="G834" s="32"/>
+      <c r="H834" s="33"/>
+      <c r="I834" s="32"/>
+      <c r="J834" s="92">
+        <v>140</v>
+      </c>
+      <c r="K834" s="33"/>
+      <c r="L834" s="33"/>
+      <c r="M834" s="69"/>
+    </row>
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A835" s="31"/>
+      <c r="B835" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C835" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D835" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E835" s="33"/>
+      <c r="F835" s="33"/>
+      <c r="G835" s="54"/>
+      <c r="H835" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I835" s="32"/>
+      <c r="J835" s="34"/>
+      <c r="K835" s="33"/>
+      <c r="L835" s="33"/>
+      <c r="M835" s="69"/>
+    </row>
+    <row r="836" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A836" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B836" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C836" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D836" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E836" s="33"/>
+      <c r="F836" s="33"/>
+      <c r="G836" s="32"/>
+      <c r="H836" s="34"/>
+      <c r="I836" s="32"/>
+      <c r="J836" s="92">
+        <v>70</v>
+      </c>
+      <c r="K836" s="33"/>
+      <c r="L836" s="33"/>
+      <c r="M836" s="69"/>
+    </row>
+    <row r="837" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A837" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B837" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C837" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D837" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E837" s="33"/>
+      <c r="F837" s="33"/>
+      <c r="G837" s="32"/>
+      <c r="H837" s="34"/>
+      <c r="I837" s="32"/>
+      <c r="J837" s="92">
+        <v>90</v>
+      </c>
+      <c r="K837" s="33"/>
+      <c r="L837" s="33"/>
+      <c r="M837" s="69"/>
+    </row>
+    <row r="838" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A838" s="37"/>
+      <c r="B838" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C838" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D838" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E838" s="33"/>
+      <c r="F838" s="33"/>
+      <c r="G838" s="32"/>
+      <c r="H838" s="34"/>
+      <c r="I838" s="32"/>
+      <c r="J838" s="34"/>
+      <c r="K838" s="33"/>
+      <c r="L838" s="33"/>
+      <c r="M838" s="69"/>
+    </row>
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A839" s="38"/>
+      <c r="B839" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C839" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D839" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E839" s="33"/>
+      <c r="F839" s="33"/>
+      <c r="G839" s="32"/>
+      <c r="H839" s="34"/>
+      <c r="I839" s="32"/>
+      <c r="J839" s="34"/>
+      <c r="K839" s="33"/>
+      <c r="L839" s="33"/>
+      <c r="M839" s="69"/>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A840" s="121">
+        <v>44020</v>
+      </c>
+      <c r="B840" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C840" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D840" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E840" s="33"/>
+      <c r="F840" s="33"/>
+      <c r="G840" s="32"/>
+      <c r="H840" s="32"/>
+      <c r="I840" s="32"/>
+      <c r="J840" s="92">
+        <v>50</v>
+      </c>
+      <c r="K840" s="33"/>
+      <c r="L840" s="33"/>
+      <c r="M840" s="69"/>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A841" s="31"/>
+      <c r="B841" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C841" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D841" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E841" s="33"/>
+      <c r="F841" s="33"/>
+      <c r="G841" s="55"/>
+      <c r="H841" s="34"/>
+      <c r="I841" s="32"/>
+      <c r="J841" s="33"/>
+      <c r="K841" s="33"/>
+      <c r="L841" s="33"/>
+      <c r="M841" s="69"/>
+    </row>
+    <row r="842" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A842" s="40"/>
+      <c r="B842" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C842" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D842" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E842" s="43"/>
+      <c r="F842" s="43"/>
+      <c r="G842" s="42"/>
+      <c r="H842" s="42"/>
+      <c r="I842" s="43"/>
+      <c r="J842" s="42"/>
+      <c r="K842" s="42"/>
+      <c r="L842" s="42"/>
+      <c r="M842" s="72"/>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A843" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B843" s="116">
+        <v>1</v>
+      </c>
+      <c r="C843" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D843" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E843" s="96">
+        <v>8.5</v>
+      </c>
+      <c r="F843" s="94">
+        <v>3.1</v>
+      </c>
+      <c r="G843" s="75"/>
+      <c r="H843" s="76"/>
+      <c r="I843" s="75"/>
+      <c r="J843" s="99"/>
+      <c r="K843" s="96">
+        <v>3</v>
+      </c>
+      <c r="L843" s="75"/>
+      <c r="M843" s="77"/>
+    </row>
+    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A844" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B844" s="117">
+        <v>1</v>
+      </c>
+      <c r="C844" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D844" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E844" s="101">
+        <v>8.5</v>
+      </c>
+      <c r="F844" s="87">
+        <v>3</v>
+      </c>
+      <c r="G844" s="33"/>
+      <c r="H844" s="34"/>
+      <c r="I844" s="33"/>
+      <c r="J844" s="92"/>
+      <c r="K844" s="88">
+        <v>3</v>
+      </c>
+      <c r="L844" s="33"/>
+      <c r="M844" s="69"/>
+    </row>
+    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A845" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B845" s="117">
+        <v>1</v>
+      </c>
+      <c r="C845" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D845" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E845" s="88">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F845" s="87">
+        <v>3</v>
+      </c>
+      <c r="G845" s="33"/>
+      <c r="H845" s="34"/>
+      <c r="I845" s="33"/>
+      <c r="J845" s="92"/>
+      <c r="K845" s="87">
+        <v>1</v>
+      </c>
+      <c r="L845" s="33"/>
+      <c r="M845" s="69"/>
+    </row>
+    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A846" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B846" s="117">
+        <v>1</v>
+      </c>
+      <c r="C846" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D846" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E846" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F846" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G846" s="33"/>
+      <c r="H846" s="34"/>
+      <c r="I846" s="33"/>
+      <c r="J846" s="87"/>
+      <c r="K846" s="88">
+        <v>4</v>
+      </c>
+      <c r="L846" s="33"/>
+      <c r="M846" s="69"/>
+    </row>
+    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A847" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B847" s="117">
+        <v>1</v>
+      </c>
+      <c r="C847" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D847" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E847" s="88">
+        <v>8.4</v>
+      </c>
+      <c r="F847" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G847" s="33"/>
+      <c r="H847" s="34"/>
+      <c r="I847" s="33"/>
+      <c r="J847" s="87"/>
+      <c r="K847" s="88">
+        <v>5</v>
+      </c>
+      <c r="L847" s="33"/>
+      <c r="M847" s="69"/>
+    </row>
+    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A848" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B848" s="117">
+        <v>2</v>
+      </c>
+      <c r="C848" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D848" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E848" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F848" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="G848" s="33"/>
+      <c r="H848" s="34"/>
+      <c r="I848" s="33"/>
+      <c r="J848" s="87"/>
+      <c r="K848" s="88">
+        <v>5</v>
+      </c>
+      <c r="L848" s="33"/>
+      <c r="M848" s="69"/>
+    </row>
+    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A849" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B849" s="117">
+        <v>2</v>
+      </c>
+      <c r="C849" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D849" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E849" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F849" s="88">
+        <v>2.7</v>
+      </c>
+      <c r="G849" s="33"/>
+      <c r="H849" s="34"/>
+      <c r="I849" s="33"/>
+      <c r="J849" s="87"/>
+      <c r="K849" s="87">
+        <v>2</v>
+      </c>
+      <c r="L849" s="33"/>
+      <c r="M849" s="69"/>
+    </row>
+    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A850" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B850" s="117">
+        <v>2</v>
+      </c>
+      <c r="C850" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D850" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E850" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F850" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G850" s="33"/>
+      <c r="H850" s="34"/>
+      <c r="I850" s="33"/>
+      <c r="J850" s="87"/>
+      <c r="K850" s="87">
+        <v>2</v>
+      </c>
+      <c r="L850" s="33"/>
+      <c r="M850" s="69"/>
+    </row>
+    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A851" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B851" s="117">
+        <v>3</v>
+      </c>
+      <c r="C851" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D851" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E851" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F851" s="87">
+        <v>3.5</v>
+      </c>
+      <c r="G851" s="33"/>
+      <c r="H851" s="34"/>
+      <c r="I851" s="33"/>
+      <c r="J851" s="87"/>
+      <c r="K851" s="87">
+        <v>0</v>
+      </c>
+      <c r="L851" s="33"/>
+      <c r="M851" s="69"/>
+    </row>
+    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A852" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B852" s="117">
+        <v>3</v>
+      </c>
+      <c r="C852" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D852" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E852" s="87">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F852" s="123">
+        <v>2.4</v>
+      </c>
+      <c r="G852" s="33"/>
+      <c r="H852" s="34"/>
+      <c r="I852" s="33"/>
+      <c r="J852" s="87"/>
+      <c r="K852" s="88">
+        <v>5</v>
+      </c>
+      <c r="L852" s="33"/>
+      <c r="M852" s="69"/>
+    </row>
+    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A853" s="122">
+        <v>44021</v>
+      </c>
+      <c r="B853" s="117">
+        <v>3</v>
+      </c>
+      <c r="C853" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D853" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E853" s="87">
+        <v>9</v>
+      </c>
+      <c r="F853" s="123">
+        <v>2.7</v>
+      </c>
+      <c r="G853" s="33"/>
+      <c r="H853" s="34"/>
+      <c r="I853" s="33"/>
+      <c r="J853" s="87"/>
+      <c r="K853" s="88">
+        <v>3</v>
+      </c>
+      <c r="L853" s="33"/>
+      <c r="M853" s="69"/>
+    </row>
+    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A854" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B854" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C854" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D854" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E854" s="33"/>
+      <c r="F854" s="34"/>
+      <c r="G854" s="32"/>
+      <c r="H854" s="33"/>
+      <c r="I854" s="32"/>
+      <c r="J854" s="92"/>
+      <c r="K854" s="33"/>
+      <c r="L854" s="33"/>
+      <c r="M854" s="69"/>
+    </row>
+    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A855" s="31"/>
+      <c r="B855" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C855" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D855" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E855" s="33"/>
+      <c r="F855" s="33"/>
+      <c r="G855" s="54"/>
+      <c r="H855" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I855" s="32"/>
+      <c r="J855" s="34"/>
+      <c r="K855" s="33"/>
+      <c r="L855" s="33"/>
+      <c r="M855" s="69"/>
+    </row>
+    <row r="856" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A856" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B856" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C856" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D856" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E856" s="33"/>
+      <c r="F856" s="33"/>
+      <c r="G856" s="87">
+        <v>7.73</v>
+      </c>
+      <c r="H856" s="34"/>
+      <c r="I856" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="J856" s="92"/>
+      <c r="K856" s="33"/>
+      <c r="L856" s="33"/>
+      <c r="M856" s="69"/>
+    </row>
+    <row r="857" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A857" s="121"/>
+      <c r="B857" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C857" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D857" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E857" s="33"/>
+      <c r="F857" s="33"/>
+      <c r="G857" s="32"/>
+      <c r="H857" s="34"/>
+      <c r="I857" s="32"/>
+      <c r="J857" s="92"/>
+      <c r="K857" s="33"/>
+      <c r="L857" s="33"/>
+      <c r="M857" s="69"/>
+    </row>
+    <row r="858" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A858" s="37"/>
+      <c r="B858" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C858" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D858" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E858" s="33"/>
+      <c r="F858" s="33"/>
+      <c r="G858" s="32"/>
+      <c r="H858" s="34"/>
+      <c r="I858" s="32"/>
+      <c r="J858" s="34"/>
+      <c r="K858" s="33"/>
+      <c r="L858" s="33"/>
+      <c r="M858" s="69"/>
+    </row>
+    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A859" s="121">
+        <v>44021</v>
+      </c>
+      <c r="B859" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C859" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D859" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E859" s="33"/>
+      <c r="F859" s="33"/>
+      <c r="G859" s="88">
+        <v>2.65</v>
+      </c>
+      <c r="H859" s="92">
+        <v>7.31</v>
+      </c>
+      <c r="I859" s="88">
+        <v>1.9</v>
+      </c>
+      <c r="J859" s="34"/>
+      <c r="K859" s="33"/>
+      <c r="L859" s="33"/>
+      <c r="M859" s="69"/>
+    </row>
+    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A860" s="121"/>
+      <c r="B860" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C860" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D860" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E860" s="33"/>
+      <c r="F860" s="33"/>
+      <c r="G860" s="32"/>
+      <c r="H860" s="32"/>
+      <c r="I860" s="32"/>
+      <c r="J860" s="92"/>
+      <c r="K860" s="33"/>
+      <c r="L860" s="33"/>
+      <c r="M860" s="69"/>
+    </row>
+    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A861" s="31"/>
+      <c r="B861" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C861" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D861" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E861" s="33"/>
+      <c r="F861" s="33"/>
+      <c r="G861" s="55"/>
+      <c r="H861" s="34"/>
+      <c r="I861" s="32"/>
+      <c r="J861" s="33"/>
+      <c r="K861" s="33"/>
+      <c r="L861" s="33"/>
+      <c r="M861" s="69"/>
+    </row>
+    <row r="862" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A862" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B862" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C862" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D862" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E862" s="43"/>
+      <c r="F862" s="43"/>
+      <c r="G862" s="42"/>
+      <c r="H862" s="42"/>
+      <c r="I862" s="98">
+        <v>0.17</v>
+      </c>
+      <c r="J862" s="42"/>
+      <c r="K862" s="42"/>
+      <c r="L862" s="42"/>
+      <c r="M862" s="125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A863" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B863" s="116">
+        <v>1</v>
+      </c>
+      <c r="C863" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D863" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="E863" s="96">
+        <v>8.6</v>
+      </c>
+      <c r="F863" s="94">
+        <v>3.1</v>
+      </c>
+      <c r="G863" s="75"/>
+      <c r="H863" s="76"/>
+      <c r="I863" s="75"/>
+      <c r="J863" s="99"/>
+      <c r="K863" s="96">
+        <v>5</v>
+      </c>
+      <c r="L863" s="75"/>
+      <c r="M863" s="77"/>
+    </row>
+    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A864" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B864" s="117">
+        <v>1</v>
+      </c>
+      <c r="C864" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D864" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E864" s="101">
+        <v>8.6</v>
+      </c>
+      <c r="F864" s="87">
+        <v>3.3</v>
+      </c>
+      <c r="G864" s="33"/>
+      <c r="H864" s="34"/>
+      <c r="I864" s="33"/>
+      <c r="J864" s="92"/>
+      <c r="K864" s="88">
+        <v>5</v>
+      </c>
+      <c r="L864" s="33"/>
+      <c r="M864" s="69"/>
+    </row>
+    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A865" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B865" s="117">
+        <v>1</v>
+      </c>
+      <c r="C865" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D865" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E865" s="88">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F865" s="87">
+        <v>3</v>
+      </c>
+      <c r="G865" s="33"/>
+      <c r="H865" s="34"/>
+      <c r="I865" s="33"/>
+      <c r="J865" s="92"/>
+      <c r="K865" s="87">
+        <v>0</v>
+      </c>
+      <c r="L865" s="33"/>
+      <c r="M865" s="69"/>
+    </row>
+    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A866" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B866" s="117">
+        <v>1</v>
+      </c>
+      <c r="C866" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D866" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E866" s="88">
+        <v>8.5</v>
+      </c>
+      <c r="F866" s="88">
+        <v>2.7</v>
+      </c>
+      <c r="G866" s="33"/>
+      <c r="H866" s="34"/>
+      <c r="I866" s="33"/>
+      <c r="J866" s="87"/>
+      <c r="K866" s="88">
+        <v>4</v>
+      </c>
+      <c r="L866" s="33"/>
+      <c r="M866" s="69"/>
+    </row>
+    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A867" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B867" s="117">
+        <v>1</v>
+      </c>
+      <c r="C867" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D867" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E867" s="88">
+        <v>8.4</v>
+      </c>
+      <c r="F867" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G867" s="33"/>
+      <c r="H867" s="34"/>
+      <c r="I867" s="33"/>
+      <c r="J867" s="87"/>
+      <c r="K867" s="88">
+        <v>5</v>
+      </c>
+      <c r="L867" s="33"/>
+      <c r="M867" s="69"/>
+    </row>
+    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A868" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B868" s="117">
+        <v>2</v>
+      </c>
+      <c r="C868" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D868" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E868" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F868" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="G868" s="33"/>
+      <c r="H868" s="34"/>
+      <c r="I868" s="33"/>
+      <c r="J868" s="87"/>
+      <c r="K868" s="88">
+        <v>5</v>
+      </c>
+      <c r="L868" s="33"/>
+      <c r="M868" s="69"/>
+    </row>
+    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A869" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B869" s="117">
+        <v>2</v>
+      </c>
+      <c r="C869" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D869" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E869" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F869" s="88">
+        <v>2.7</v>
+      </c>
+      <c r="G869" s="33"/>
+      <c r="H869" s="34"/>
+      <c r="I869" s="33"/>
+      <c r="J869" s="87"/>
+      <c r="K869" s="88">
+        <v>5</v>
+      </c>
+      <c r="L869" s="33"/>
+      <c r="M869" s="69"/>
+    </row>
+    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A870" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B870" s="117">
+        <v>2</v>
+      </c>
+      <c r="C870" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D870" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E870" s="88">
+        <v>8.6</v>
+      </c>
+      <c r="F870" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="G870" s="33"/>
+      <c r="H870" s="34"/>
+      <c r="I870" s="33"/>
+      <c r="J870" s="87"/>
+      <c r="K870" s="87">
+        <v>2</v>
+      </c>
+      <c r="L870" s="33"/>
+      <c r="M870" s="69"/>
+    </row>
+    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A871" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B871" s="117">
+        <v>3</v>
+      </c>
+      <c r="C871" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D871" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E871" s="87">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F871" s="87">
+        <v>3.5</v>
+      </c>
+      <c r="G871" s="33"/>
+      <c r="H871" s="34"/>
+      <c r="I871" s="33"/>
+      <c r="J871" s="87"/>
+      <c r="K871" s="87">
+        <v>0</v>
+      </c>
+      <c r="L871" s="33"/>
+      <c r="M871" s="69"/>
+    </row>
+    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A872" s="121">
+        <v>44022</v>
+      </c>
+      <c r="B872" s="117">
+        <v>3</v>
+      </c>
+      <c r="C872" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D872" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E872" s="87">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F872" s="87">
+        <v>3</v>
+      </c>
+      <c r="G872" s="33"/>
+      <c r="H872" s="34"/>
+      <c r="I872" s="33"/>
+      <c r="J872" s="87"/>
+      <c r="K872" s="88">
+        <v>3</v>
+      </c>
+      <c r="L872" s="33"/>
+      <c r="M872" s="69"/>
+    </row>
+    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A873" s="122">
+        <v>44022</v>
+      </c>
+      <c r="B873" s="117">
+        <v>3</v>
+      </c>
+      <c r="C873" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D873" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E873" s="87">
+        <v>9</v>
+      </c>
+      <c r="F873" s="123">
+        <v>2.7</v>
+      </c>
+      <c r="G873" s="33"/>
+      <c r="H873" s="34"/>
+      <c r="I873" s="33"/>
+      <c r="J873" s="87"/>
+      <c r="K873" s="88">
+        <v>3</v>
+      </c>
+      <c r="L873" s="33"/>
+      <c r="M873" s="69"/>
+    </row>
+    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A874" s="121"/>
+      <c r="B874" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C874" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D874" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E874" s="33"/>
+      <c r="F874" s="34"/>
+      <c r="G874" s="32"/>
+      <c r="H874" s="33"/>
+      <c r="I874" s="32"/>
+      <c r="J874" s="92"/>
+      <c r="K874" s="33"/>
+      <c r="L874" s="33"/>
+      <c r="M874" s="69"/>
+    </row>
+    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A875" s="31"/>
+      <c r="B875" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C875" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D875" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E875" s="33"/>
+      <c r="F875" s="33"/>
+      <c r="G875" s="54"/>
+      <c r="H875" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I875" s="32"/>
+      <c r="J875" s="34"/>
+      <c r="K875" s="33"/>
+      <c r="L875" s="33"/>
+      <c r="M875" s="69"/>
+    </row>
+    <row r="876" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A876" s="121"/>
+      <c r="B876" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C876" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D876" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E876" s="33"/>
+      <c r="F876" s="33"/>
+      <c r="G876" s="87"/>
+      <c r="H876" s="34"/>
+      <c r="I876" s="32"/>
+      <c r="J876" s="92"/>
+      <c r="K876" s="33"/>
+      <c r="L876" s="33"/>
+      <c r="M876" s="69"/>
+    </row>
+    <row r="877" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A877" s="121"/>
+      <c r="B877" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C877" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D877" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E877" s="33"/>
+      <c r="F877" s="33"/>
+      <c r="G877" s="32"/>
+      <c r="H877" s="34"/>
+      <c r="I877" s="32"/>
+      <c r="J877" s="92"/>
+      <c r="K877" s="33"/>
+      <c r="L877" s="33"/>
+      <c r="M877" s="69"/>
+    </row>
+    <row r="878" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A878" s="37"/>
+      <c r="B878" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C878" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D878" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E878" s="33"/>
+      <c r="F878" s="33"/>
+      <c r="G878" s="32"/>
+      <c r="H878" s="34"/>
+      <c r="I878" s="32"/>
+      <c r="J878" s="34"/>
+      <c r="K878" s="33"/>
+      <c r="L878" s="33"/>
+      <c r="M878" s="69"/>
+    </row>
+    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A879" s="121"/>
+      <c r="B879" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C879" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D879" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E879" s="33"/>
+      <c r="F879" s="33"/>
+      <c r="G879" s="87"/>
+      <c r="H879" s="92"/>
+      <c r="I879" s="87"/>
+      <c r="J879" s="34"/>
+      <c r="K879" s="33"/>
+      <c r="L879" s="33"/>
+      <c r="M879" s="69"/>
+    </row>
+    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A880" s="121"/>
+      <c r="B880" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C880" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D880" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E880" s="33"/>
+      <c r="F880" s="33"/>
+      <c r="G880" s="32"/>
+      <c r="H880" s="32"/>
+      <c r="I880" s="32"/>
+      <c r="J880" s="92"/>
+      <c r="K880" s="33"/>
+      <c r="L880" s="33"/>
+      <c r="M880" s="69"/>
+    </row>
+    <row r="881" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A881" s="31"/>
+      <c r="B881" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C881" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D881" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E881" s="33"/>
+      <c r="F881" s="33"/>
+      <c r="G881" s="55"/>
+      <c r="H881" s="34"/>
+      <c r="I881" s="32"/>
+      <c r="J881" s="33"/>
+      <c r="K881" s="33"/>
+      <c r="L881" s="33"/>
+      <c r="M881" s="69"/>
+    </row>
+    <row r="882" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A882" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B882" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C882" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D882" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E882" s="43"/>
+      <c r="F882" s="43"/>
+      <c r="G882" s="42"/>
+      <c r="H882" s="42"/>
+      <c r="I882" s="126"/>
+      <c r="J882" s="42"/>
+      <c r="K882" s="42"/>
+      <c r="L882" s="42"/>
+      <c r="M882" s="127"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
@@ -37537,7 +39145,8 @@
   <pageSetup paperSize="256" scale="92" fitToHeight="4" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817" twoDigitTextYear="1"/>
+    <ignoredError sqref="C5 C8 C11 C25 C28 C31 C45:C51 C65:C88 C91:C115 C125:C159 C165:C197 C205:C367 C368:C577 C585:C802 C805:C817 C825:C833 C845:C851 C865:C871" twoDigitTextYear="1"/>
+    <ignoredError sqref="M862 I856" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>